--- a/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
+++ b/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Desktop/nes-lter-fish-diet-isotope/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-fish-diet-isotope/fish-isotope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82D61B8-0536-B940-9B6A-15ACBA016A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D374B0E-1FD1-A943-BE14-0D1957106DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14740" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14740" activeTab="2" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="113">
   <si>
     <t>Cruise</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Suca</t>
   </si>
   <si>
-    <t>Northeast Shelf U.S. Shelf LTER</t>
-  </si>
-  <si>
     <t>jsuca@whoi.edu</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>Richardson</t>
   </si>
   <si>
-    <t>NOAA Fisheries Science Center</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>uhhh</t>
-  </si>
-  <si>
     <t>d13C_corr</t>
   </si>
   <si>
@@ -360,6 +351,30 @@
   <si>
     <t>Average depth of seafloor during sample event</t>
   </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>Missing data in fisheries dataset</t>
+  </si>
+  <si>
+    <t>Northeast U.S. Shelf LTER</t>
+  </si>
+  <si>
+    <t>Jaxine</t>
+  </si>
+  <si>
+    <t>Wolfe</t>
+  </si>
+  <si>
+    <t>jawolfe@whoi.edu</t>
+  </si>
+  <si>
+    <t>metadataProvider</t>
+  </si>
+  <si>
+    <t>OCE-1655693</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +447,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13866,8 +13887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4F759-8EA2-3B4B-AF43-17E18264D483}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13898,10 +13919,10 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -13936,28 +13957,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -13965,67 +13989,82 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+      <c r="H7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>46</v>
+      <c r="B8" t="s">
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>104</v>
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -14035,11 +14074,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>43</v>
+      <c r="A10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -14047,141 +14089,114 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>33</v>
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>26</v>
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -14191,10 +14206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F0317F-C8A9-A841-AC2A-4532E9443C7E}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14242,173 +14257,201 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
         <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{88F27A6E-6DA9-8B4C-A729-7282ADA0CEA3}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{CB0640BB-B50F-5D4B-9137-E1CF5423E3E2}"/>
     <hyperlink ref="E8" r:id="rId3" xr:uid="{2E9CA368-AD1F-3F4B-8CAB-4757F4C8DDEA}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{95F17C15-BEBF-8B47-B6B7-107DA92D8DFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
+++ b/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-fish-diet-isotope/fish-isotope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D374B0E-1FD1-A943-BE14-0D1957106DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807E4B0-78D3-4A48-B241-195F8AC7A31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14740" activeTab="2" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14740" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -343,9 +343,6 @@
     <t>d13C_corr</t>
   </si>
   <si>
-    <t>averageDepth</t>
-  </si>
-  <si>
     <t>Unique number for fish specimen</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>OCE-1655693</t>
+  </si>
+  <si>
+    <t>average_depth</t>
   </si>
 </sst>
 </file>
@@ -13887,8 +13887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4F759-8EA2-3B4B-AF43-17E18264D483}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13973,7 +13973,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13993,7 +13993,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14013,7 +14013,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14033,27 +14033,27 @@
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14064,7 +14064,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -14208,7 +14208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F0317F-C8A9-A841-AC2A-4532E9443C7E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -14257,7 +14257,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>60</v>
@@ -14286,7 +14286,7 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -14309,7 +14309,7 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -14332,7 +14332,7 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
         <v>68</v>
@@ -14355,7 +14355,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
         <v>81</v>
@@ -14378,7 +14378,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>86</v>
@@ -14390,7 +14390,7 @@
         <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
         <v>63</v>
@@ -14404,7 +14404,7 @@
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>90</v>
@@ -14421,28 +14421,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" t="s">
         <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>111</v>
       </c>
       <c r="I9" t="s">
         <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
+++ b/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-fish-diet-isotope/fish-isotope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807E4B0-78D3-4A48-B241-195F8AC7A31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA79578-E707-0346-A360-AA96C9C049AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14740" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14720" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Longitude of sample event</t>
-  </si>
-  <si>
-    <t>Taxonomic serial number of fish specimen</t>
   </si>
   <si>
     <t>Scientific name of fish specimen</t>
@@ -328,12 +325,6 @@
     <t>Common name of fish specimen</t>
   </si>
   <si>
-    <t>Carbon-13 to Carbon-12 isotopic ratio in delta noation</t>
-  </si>
-  <si>
-    <t>Nitrogen-15 to Nitrogen-14 isotopic ratio in delta noation</t>
-  </si>
-  <si>
     <t>Carbon to nitrogen isotopic ratio</t>
   </si>
   <si>
@@ -374,6 +365,15 @@
   </si>
   <si>
     <t>average_depth</t>
+  </si>
+  <si>
+    <t>Taxonomic serial number of fish specimen with prefix urn:lsid:itis.gov:itis_tsn:</t>
+  </si>
+  <si>
+    <t>Carbon-13 to Carbon-12 isotopic ratio in delta notation</t>
+  </si>
+  <si>
+    <t>Nitrogen-15 to Nitrogen-14 isotopic ratio in delta notation</t>
   </si>
 </sst>
 </file>
@@ -13888,7 +13888,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13919,10 +13919,10 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -13970,10 +13970,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13990,10 +13990,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14001,7 +14001,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>18</v>
@@ -14010,10 +14010,10 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14021,7 +14021,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -14030,30 +14030,30 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14064,7 +14064,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -14081,7 +14081,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -14089,10 +14089,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -14103,7 +14103,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>19</v>
@@ -14114,7 +14114,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>19</v>
@@ -14122,10 +14122,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>19</v>
@@ -14139,7 +14139,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -14156,7 +14156,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -14170,10 +14170,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -14187,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -14216,233 +14216,233 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
         <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
         <v>81</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" t="s">
         <v>86</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
         <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
         <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
         <v>108</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
+++ b/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-fish-diet-isotope/fish-isotope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA79578-E707-0346-A360-AA96C9C049AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F00B5F-3764-3D4F-BF27-7CEB690919FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14720" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14720" activeTab="2" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Richardson</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>OCE-1655690</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>Nitrogen-15 to Nitrogen-14 isotopic ratio in delta notation</t>
+  </si>
+  <si>
+    <t>principal investigator</t>
   </si>
 </sst>
 </file>
@@ -13887,7 +13887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4F759-8EA2-3B4B-AF43-17E18264D483}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -13919,10 +13919,10 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -13970,10 +13970,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13990,10 +13990,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14010,10 +14010,10 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14030,30 +14030,30 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
         <v>101</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14064,7 +14064,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -14114,7 +14114,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>19</v>
@@ -14122,10 +14122,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>19</v>
@@ -14139,7 +14139,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -14156,7 +14156,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -14173,7 +14173,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -14187,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -14208,8 +14208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F0317F-C8A9-A841-AC2A-4532E9443C7E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14257,7 +14257,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>59</v>
@@ -14277,62 +14277,71 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>67</v>
@@ -14341,117 +14350,108 @@
         <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
       </c>
       <c r="I8" t="s">
         <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" t="s">
         <v>106</v>
-      </c>
-      <c r="G9" t="s">
-        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{88F27A6E-6DA9-8B4C-A729-7282ADA0CEA3}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{CB0640BB-B50F-5D4B-9137-E1CF5423E3E2}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{2E9CA368-AD1F-3F4B-8CAB-4757F4C8DDEA}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{95F17C15-BEBF-8B47-B6B7-107DA92D8DFD}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B3222883-64DB-4E40-BFC3-1009CF7A773B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{90F57EF5-C96C-DB4E-B5A5-68FBE57CF6CC}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{CAE2B8FD-1790-764F-88E9-6392714647DE}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{79CF9EEB-8CC4-C34F-BD57-0E10987B2E4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
+++ b/fish-isotope/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-fish-diet-isotope/fish-isotope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F00B5F-3764-3D4F-BF27-7CEB690919FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC063D8-859D-284F-B8C6-2E1F0491A0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14720" activeTab="2" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="107">
   <si>
     <t>Cruise</t>
   </si>
@@ -241,9 +241,6 @@
     <t>technician</t>
   </si>
   <si>
-    <t>OCE-1655687</t>
-  </si>
-  <si>
     <t>Zofia</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>Knorek</t>
-  </si>
-  <si>
-    <t>OCE-1655688</t>
   </si>
   <si>
     <t>Sara</t>
@@ -265,9 +259,6 @@
     <t>Hamilton</t>
   </si>
   <si>
-    <t>OCE-1655689</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
   </si>
   <si>
     <t>Richardson</t>
-  </si>
-  <si>
-    <t>OCE-1655690</t>
   </si>
   <si>
     <t>Joel</t>
@@ -295,9 +283,6 @@
     <t>0000-0002-7584-7471</t>
   </si>
   <si>
-    <t>OCE-1655691</t>
-  </si>
-  <si>
     <t>NES-LTER Information Manager</t>
   </si>
   <si>
@@ -305,9 +290,6 @@
   </si>
   <si>
     <t>contact</t>
-  </si>
-  <si>
-    <t>OCE-1655692</t>
   </si>
   <si>
     <t>missingValueCode</t>
@@ -358,9 +340,6 @@
     <t>metadataProvider</t>
   </si>
   <si>
-    <t>OCE-1655693</t>
-  </si>
-  <si>
     <t>average_depth</t>
   </si>
   <si>
@@ -374,6 +353,9 @@
   </si>
   <si>
     <t>principal investigator</t>
+  </si>
+  <si>
+    <t>0000-0001-9620-5382</t>
   </si>
 </sst>
 </file>
@@ -13919,10 +13901,10 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -13970,10 +13952,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13990,10 +13972,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14010,10 +13992,10 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14030,30 +14012,30 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14064,7 +14046,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -14114,7 +14096,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>19</v>
@@ -14122,10 +14104,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>19</v>
@@ -14139,7 +14121,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -14156,7 +14138,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -14173,7 +14155,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -14187,7 +14169,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -14209,7 +14191,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14257,7 +14239,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>59</v>
@@ -14277,57 +14259,57 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -14341,7 +14323,7 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>67</v>
@@ -14350,21 +14332,21 @@
         <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>67</v>
@@ -14373,21 +14355,21 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>67</v>
@@ -14396,53 +14378,56 @@
         <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
         <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
